--- a/clientinfo_atg/client_atg_data.xlsx
+++ b/clientinfo_atg/client_atg_data.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark_hoshipu\Desktop\my_coding\yif_2024\gjp\client_atg程序打包\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\PC.电子网页转移\partial_coding\yif_2024\gjp\client_atg程序打包\dist\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F879C87-F047-4039-A7C4-E8F00C02AF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
   </bookViews>
   <sheets>
     <sheet name="散客信息" sheetId="1" r:id="rId1"/>
     <sheet name="GROB" sheetId="2" r:id="rId2"/>
     <sheet name="设置" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,12 +32,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Zhang Candy</author>
   </authors>
   <commentList>
-    <comment ref="A103" authorId="0" shapeId="0" xr:uid="{C85A702E-15E9-45F0-9DEC-0015E6E66307}">
+    <comment ref="A103" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A946" authorId="0" shapeId="0" xr:uid="{62ACE57B-370D-4DFA-8A91-8F8D68B2BD43}">
+    <comment ref="A946" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="2292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2370" uniqueCount="2307">
   <si>
     <t>请严格按照格式填写，不要修改表头，且在最后一行添加END字样；仅有中文名字的客户会被记录</t>
   </si>
@@ -7101,13 +7100,104 @@
   </si>
   <si>
     <t>CHN/EE2647037/CHN/06MAR88/M/04NOV28/ZHANG/WEI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李智远</t>
+  </si>
+  <si>
+    <t>2222</t>
+  </si>
+  <si>
+    <t>zhil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>jk</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jlkj</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>en</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lzmasd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>asd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>df</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>f</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18">
     <font>
       <sz val="10"/>
@@ -7321,7 +7411,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7522,6 +7612,12 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7538,7 +7634,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="33">
@@ -7818,16 +7914,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="5" tint="0.79992065187536243"/>
@@ -7878,6 +7964,16 @@
           <color theme="5"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -8285,31 +8381,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="8" width="20.625" customWidth="1"/>
+    <col min="1" max="8" width="20.61328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
     </row>
     <row r="2" spans="1:10" ht="48.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -8347,35 +8443,97 @@
       <c r="C3" s="32">
         <v>13125494170</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
+      <c r="D3" s="73" t="s">
+        <v>2294</v>
+      </c>
+      <c r="E3" s="73" t="s">
+        <v>2295</v>
+      </c>
+      <c r="F3" s="33">
+        <v>123</v>
+      </c>
+      <c r="G3" s="73" t="s">
+        <v>2296</v>
+      </c>
+      <c r="H3" s="73" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="71" customFormat="1">
+      <c r="A4" s="30" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>2303</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>2304</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>2305</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>2306</v>
+      </c>
+      <c r="G4" s="73" t="s">
+        <v>2305</v>
+      </c>
+      <c r="H4" s="73" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="70" customFormat="1">
+      <c r="A5" s="30" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>2293</v>
+      </c>
+      <c r="C5" s="32">
+        <v>22223</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>2301</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>2298</v>
+      </c>
+      <c r="F5" s="33">
+        <v>456</v>
+      </c>
+      <c r="G5" s="73" t="s">
+        <v>2299</v>
+      </c>
+      <c r="H5" s="73" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F6" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G6" t="s">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8389,32 +8547,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1070"/>
   <sheetViews>
     <sheetView topLeftCell="A840" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J893" sqref="J893"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="8" width="20.625" style="34" customWidth="1"/>
+    <col min="1" max="8" width="20.61328125" style="34" customWidth="1"/>
     <col min="9" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
     </row>
     <row r="2" spans="1:18" ht="48.75" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -9604,7 +9762,7 @@
       <c r="Q46" s="35"/>
       <c r="R46" s="35"/>
     </row>
-    <row r="47" spans="1:18" ht="13.5">
+    <row r="47" spans="1:18" ht="14">
       <c r="A47" s="15" t="s">
         <v>138</v>
       </c>
@@ -14350,7 +14508,7 @@
       <c r="Q227" s="35"/>
       <c r="R227" s="35"/>
     </row>
-    <row r="228" spans="1:18" ht="13.5">
+    <row r="228" spans="1:18" ht="14">
       <c r="A228" s="15" t="s">
         <v>499</v>
       </c>
@@ -21778,7 +21936,7 @@
       <c r="Q510" s="35"/>
       <c r="R510" s="35"/>
     </row>
-    <row r="511" spans="1:18" ht="13.5">
+    <row r="511" spans="1:18" ht="14">
       <c r="A511" s="15" t="s">
         <v>1063</v>
       </c>
@@ -26916,7 +27074,7 @@
       <c r="Q706" s="35"/>
       <c r="R706" s="35"/>
     </row>
-    <row r="707" spans="1:18" ht="13.5">
+    <row r="707" spans="1:18" ht="14">
       <c r="A707" s="59" t="s">
         <v>1445</v>
       </c>
@@ -36471,12 +36629,12 @@
     <cfRule type="duplicateValues" dxfId="26" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A952">
-    <cfRule type="duplicateValues" dxfId="25" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A986">
-    <cfRule type="duplicateValues" dxfId="23" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A987">
     <cfRule type="duplicateValues" dxfId="21" priority="49"/>
@@ -36535,7 +36693,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="55"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G936" r:id="rId1" display="tao.zhang@grob.com.cn" xr:uid="{603048A9-A253-4A8F-A5D8-731228BFEAD2}"/>
+    <hyperlink ref="G936" r:id="rId1" display="tao.zhang@grob.com.cn"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
@@ -36543,33 +36701,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B15" sqref="B15:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="10" width="14.625" style="3" customWidth="1"/>
+    <col min="1" max="10" width="14.61328125" style="3" customWidth="1"/>
     <col min="11" max="13" width="9" style="3" customWidth="1"/>
     <col min="14" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11">
@@ -36727,11 +36885,11 @@
       <c r="A15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
